--- a/biology/Botanique/Circaeasteraceae/Circaeasteraceae.xlsx
+++ b/biology/Botanique/Circaeasteraceae/Circaeasteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Circaeasteraceae est une famille de plantes dicotylédones qui ne comprend qu'une ou deux espèces (Circaeaster agrestis et optionnellement Kingdonia uniflora).
 Ce sont de petites plantes herbacées, aux feuilles à nervation dichotomique et aux petites fleurs à carpelles séparés, des régions tempérées d'Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Circaeaster dérivé du grec Κίρκη / Circe, déesse de la magie, connue pour sa vaste connaissance des drogues, des herbes et de la sorcellerie, et du Latin aster (étoile)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Circaeaster dérivé du grec Κίρκη / Circe, déesse de la magie, connue pour sa vaste connaissance des drogues, des herbes et de la sorcellerie, et du Latin aster (étoile).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Optionnellement, la classification phylogénétique APG II (2003)[2] place, dans cette famille Kingdonia uniflora une plante herbacée, rhizomateuse, originaire de Chine. Cette espèce peut aussi être assignée à la famille Kingdoniaceae.
-La classification phylogénétique APG III (2009)[3], qui a évité toute option, y place systématiquement Kingdonia uniflora, rendant la famille Kingdoniaceae invalide.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Optionnellement, la classification phylogénétique APG II (2003) place, dans cette famille Kingdonia uniflora une plante herbacée, rhizomateuse, originaire de Chine. Cette espèce peut aussi être assignée à la famille Kingdoniaceae.
+La classification phylogénétique APG III (2009), qui a évité toute option, y place systématiquement Kingdonia uniflora, rendant la famille Kingdoniaceae invalide.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[3] inclut dans cette famille le genre Kingdonia, précédemment placés dans la famille Kingdoniaceae.
-Selon Angiosperm Phylogeny Website                        (16 mai 2010)[4] et NCBI  (22 avr. 2010)[5] (Plus conforme à APGIII puisqu'il incorpore le genre Kingdonia anciennement dans Kingdoniaceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille le genre Kingdonia, précédemment placés dans la famille Kingdoniaceae.
+Selon Angiosperm Phylogeny Website                        (16 mai 2010) et NCBI  (22 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Kingdonia anciennement dans Kingdoniaceae) :
 genre Circaeaster Maxim.
 genre Kingdonia Balf.f. &amp; W.W.Sm.
-Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[6] et DELTA Angio           (22 avr. 2010)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) et DELTA Angio           (22 avr. 2010) :
 genre Circaeaster Maxim. (1881)</t>
         </is>
       </c>
@@ -610,14 +628,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 avr. 2010)[5] (Plus conforme à APGIII puisqu'il incorpore le genre Kingdonia anciennement dans Kingdoniaceae) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Kingdonia anciennement dans Kingdoniaceae) :
 genre Circaeaster
 Circaeaster agrestis
 genre Kingdonia
 Kingdonia uniflora (anciennement dans Kingdoniaceae')
-Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) :
 genre Circaeaster Maxim. (1881)
 Circaeaster agrestis Maxim. (1881)</t>
         </is>
